--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Il6-Il6ra.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Il6-Il6ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Il6ra</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.1206186297509</v>
+        <v>10.233837</v>
       </c>
       <c r="H2">
-        <v>10.1206186297509</v>
+        <v>30.701511</v>
       </c>
       <c r="I2">
-        <v>0.1343119646836998</v>
+        <v>0.1267856545020524</v>
       </c>
       <c r="J2">
-        <v>0.1343119646836998</v>
+        <v>0.1267856545020524</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.0914024338516</v>
+        <v>2.097707666666667</v>
       </c>
       <c r="N2">
-        <v>2.0914024338516</v>
+        <v>6.293123</v>
       </c>
       <c r="O2">
-        <v>0.0633155462072359</v>
+        <v>0.06202842610710742</v>
       </c>
       <c r="P2">
-        <v>0.0633155462072359</v>
+        <v>0.0620284261071074</v>
       </c>
       <c r="Q2">
-        <v>21.16628643434488</v>
+        <v>21.467598334317</v>
       </c>
       <c r="R2">
-        <v>21.16628643434488</v>
+        <v>193.208385008853</v>
       </c>
       <c r="S2">
-        <v>0.00850403540611543</v>
+        <v>0.00786431460172181</v>
       </c>
       <c r="T2">
-        <v>0.00850403540611543</v>
+        <v>0.007864314601721809</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.1206186297509</v>
+        <v>10.233837</v>
       </c>
       <c r="H3">
-        <v>10.1206186297509</v>
+        <v>30.701511</v>
       </c>
       <c r="I3">
-        <v>0.1343119646836998</v>
+        <v>0.1267856545020524</v>
       </c>
       <c r="J3">
-        <v>0.1343119646836998</v>
+        <v>0.1267856545020524</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.814780877862616</v>
+        <v>0.8221409999999999</v>
       </c>
       <c r="N3">
-        <v>0.814780877862616</v>
+        <v>2.466423</v>
       </c>
       <c r="O3">
-        <v>0.02466684339946754</v>
+        <v>0.02431039990865746</v>
       </c>
       <c r="P3">
-        <v>0.02466684339946754</v>
+        <v>0.02431039990865746</v>
       </c>
       <c r="Q3">
-        <v>8.246086531661184</v>
+        <v>8.413656985016999</v>
       </c>
       <c r="R3">
-        <v>8.246086531661184</v>
+        <v>75.72291286515299</v>
       </c>
       <c r="S3">
-        <v>0.003313052199527638</v>
+        <v>0.003082209963625771</v>
       </c>
       <c r="T3">
-        <v>0.003313052199527638</v>
+        <v>0.003082209963625771</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.1206186297509</v>
+        <v>10.233837</v>
       </c>
       <c r="H4">
-        <v>10.1206186297509</v>
+        <v>30.701511</v>
       </c>
       <c r="I4">
-        <v>0.1343119646836998</v>
+        <v>0.1267856545020524</v>
       </c>
       <c r="J4">
-        <v>0.1343119646836998</v>
+        <v>0.1267856545020524</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.0004544677442</v>
+        <v>11.04613266666667</v>
       </c>
       <c r="N4">
-        <v>11.0004544677442</v>
+        <v>33.138398</v>
       </c>
       <c r="O4">
-        <v>0.3330300146348946</v>
+        <v>0.3266299850886302</v>
       </c>
       <c r="P4">
-        <v>0.3330300146348946</v>
+        <v>0.3266299850886302</v>
       </c>
       <c r="Q4">
-        <v>111.3314044219785</v>
+        <v>113.044321191042</v>
       </c>
       <c r="R4">
-        <v>111.3314044219785</v>
+        <v>1017.398890719378</v>
       </c>
       <c r="S4">
-        <v>0.04472991556425399</v>
+        <v>0.04141199643945761</v>
       </c>
       <c r="T4">
-        <v>0.04472991556425399</v>
+        <v>0.04141199643945761</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.1206186297509</v>
+        <v>10.233837</v>
       </c>
       <c r="H5">
-        <v>10.1206186297509</v>
+        <v>30.701511</v>
       </c>
       <c r="I5">
-        <v>0.1343119646836998</v>
+        <v>0.1267856545020524</v>
       </c>
       <c r="J5">
-        <v>0.1343119646836998</v>
+        <v>0.1267856545020524</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.1247827662367</v>
+        <v>19.80071533333333</v>
       </c>
       <c r="N5">
-        <v>19.1247827662367</v>
+        <v>59.402146</v>
       </c>
       <c r="O5">
-        <v>0.5789875957584021</v>
+        <v>0.5854996992375019</v>
       </c>
       <c r="P5">
-        <v>0.5789875957584021</v>
+        <v>0.5854996992375019</v>
       </c>
       <c r="Q5">
-        <v>193.5546327539141</v>
+        <v>202.637293204734</v>
       </c>
       <c r="R5">
-        <v>193.5546327539141</v>
+        <v>1823.735638842606</v>
       </c>
       <c r="S5">
-        <v>0.07776496151380276</v>
+        <v>0.07423296257858152</v>
       </c>
       <c r="T5">
-        <v>0.07776496151380276</v>
+        <v>0.07423296257858152</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>61.6997035769876</v>
+        <v>10.233837</v>
       </c>
       <c r="H6">
-        <v>61.6997035769876</v>
+        <v>30.701511</v>
       </c>
       <c r="I6">
-        <v>0.8188242943436624</v>
+        <v>0.1267856545020524</v>
       </c>
       <c r="J6">
-        <v>0.8188242943436624</v>
+        <v>0.1267856545020524</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.0914024338516</v>
+        <v>0.05179266666666667</v>
       </c>
       <c r="N6">
-        <v>2.0914024338516</v>
+        <v>0.155378</v>
       </c>
       <c r="O6">
-        <v>0.0633155462072359</v>
+        <v>0.001531489658103002</v>
       </c>
       <c r="P6">
-        <v>0.0633155462072359</v>
+        <v>0.001531489658103001</v>
       </c>
       <c r="Q6">
-        <v>129.0389102288341</v>
+        <v>0.530037708462</v>
       </c>
       <c r="R6">
-        <v>129.0389102288341</v>
+        <v>4.770339376158001</v>
       </c>
       <c r="S6">
-        <v>0.05184430744412349</v>
+        <v>0.0001941709186657136</v>
       </c>
       <c r="T6">
-        <v>0.05184430744412349</v>
+        <v>0.0001941709186657135</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>61.6997035769876</v>
+        <v>62.17948766666667</v>
       </c>
       <c r="H7">
-        <v>61.6997035769876</v>
+        <v>186.538463</v>
       </c>
       <c r="I7">
-        <v>0.8188242943436624</v>
+        <v>0.7703334575702768</v>
       </c>
       <c r="J7">
-        <v>0.8188242943436624</v>
+        <v>0.7703334575702769</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.814780877862616</v>
+        <v>2.097707666666667</v>
       </c>
       <c r="N7">
-        <v>0.814780877862616</v>
+        <v>6.293123</v>
       </c>
       <c r="O7">
-        <v>0.02466684339946754</v>
+        <v>0.06202842610710742</v>
       </c>
       <c r="P7">
-        <v>0.02466684339946754</v>
+        <v>0.0620284261071074</v>
       </c>
       <c r="Q7">
-        <v>50.27173864432115</v>
+        <v>130.4343879877721</v>
       </c>
       <c r="R7">
-        <v>50.27173864432115</v>
+        <v>1173.909491889949</v>
       </c>
       <c r="S7">
-        <v>0.02019781064025463</v>
+        <v>0.04778257195073048</v>
       </c>
       <c r="T7">
-        <v>0.02019781064025463</v>
+        <v>0.04778257195073048</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>61.6997035769876</v>
+        <v>62.17948766666667</v>
       </c>
       <c r="H8">
-        <v>61.6997035769876</v>
+        <v>186.538463</v>
       </c>
       <c r="I8">
-        <v>0.8188242943436624</v>
+        <v>0.7703334575702768</v>
       </c>
       <c r="J8">
-        <v>0.8188242943436624</v>
+        <v>0.7703334575702769</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.0004544677442</v>
+        <v>0.8221409999999999</v>
       </c>
       <c r="N8">
-        <v>11.0004544677442</v>
+        <v>2.466423</v>
       </c>
       <c r="O8">
-        <v>0.3330300146348946</v>
+        <v>0.02431039990865746</v>
       </c>
       <c r="P8">
-        <v>0.3330300146348946</v>
+        <v>0.02431039990865746</v>
       </c>
       <c r="Q8">
-        <v>678.7247798719661</v>
+        <v>51.12030616976099</v>
       </c>
       <c r="R8">
-        <v>678.7247798719661</v>
+        <v>460.082755527849</v>
       </c>
       <c r="S8">
-        <v>0.2726930667286771</v>
+        <v>0.01872711441655224</v>
       </c>
       <c r="T8">
-        <v>0.2726930667286771</v>
+        <v>0.01872711441655224</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>61.6997035769876</v>
+        <v>62.17948766666667</v>
       </c>
       <c r="H9">
-        <v>61.6997035769876</v>
+        <v>186.538463</v>
       </c>
       <c r="I9">
-        <v>0.8188242943436624</v>
+        <v>0.7703334575702768</v>
       </c>
       <c r="J9">
-        <v>0.8188242943436624</v>
+        <v>0.7703334575702769</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.1247827662367</v>
+        <v>11.04613266666667</v>
       </c>
       <c r="N9">
-        <v>19.1247827662367</v>
+        <v>33.138398</v>
       </c>
       <c r="O9">
-        <v>0.5789875957584021</v>
+        <v>0.3266299850886302</v>
       </c>
       <c r="P9">
-        <v>0.5789875957584021</v>
+        <v>0.3266299850886302</v>
       </c>
       <c r="Q9">
-        <v>1179.993427651085</v>
+        <v>686.8428699113638</v>
       </c>
       <c r="R9">
-        <v>1179.993427651085</v>
+        <v>6181.585829202275</v>
       </c>
       <c r="S9">
-        <v>0.4740891095306073</v>
+        <v>0.2516140057594525</v>
       </c>
       <c r="T9">
-        <v>0.4740891095306073</v>
+        <v>0.2516140057594525</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9271114404342859</v>
+        <v>62.17948766666667</v>
       </c>
       <c r="H10">
-        <v>0.9271114404342859</v>
+        <v>186.538463</v>
       </c>
       <c r="I10">
-        <v>0.0123038090457647</v>
+        <v>0.7703334575702768</v>
       </c>
       <c r="J10">
-        <v>0.0123038090457647</v>
+        <v>0.7703334575702769</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.0914024338516</v>
+        <v>19.80071533333333</v>
       </c>
       <c r="N10">
-        <v>2.0914024338516</v>
+        <v>59.402146</v>
       </c>
       <c r="O10">
-        <v>0.0633155462072359</v>
+        <v>0.5854996992375019</v>
       </c>
       <c r="P10">
-        <v>0.0633155462072359</v>
+        <v>0.5854996992375019</v>
       </c>
       <c r="Q10">
-        <v>1.938963122975928</v>
+        <v>1231.198334860178</v>
       </c>
       <c r="R10">
-        <v>1.938963122975928</v>
+        <v>11080.7850137416</v>
       </c>
       <c r="S10">
-        <v>0.0007790223901621219</v>
+        <v>0.451030007719982</v>
       </c>
       <c r="T10">
-        <v>0.0007790223901621219</v>
+        <v>0.4510300077199821</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.9271114404342859</v>
+        <v>62.17948766666667</v>
       </c>
       <c r="H11">
-        <v>0.9271114404342859</v>
+        <v>186.538463</v>
       </c>
       <c r="I11">
-        <v>0.0123038090457647</v>
+        <v>0.7703334575702768</v>
       </c>
       <c r="J11">
-        <v>0.0123038090457647</v>
+        <v>0.7703334575702769</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.814780877862616</v>
+        <v>0.05179266666666667</v>
       </c>
       <c r="N11">
-        <v>0.814780877862616</v>
+        <v>0.155378</v>
       </c>
       <c r="O11">
-        <v>0.02466684339946754</v>
+        <v>0.001531489658103002</v>
       </c>
       <c r="P11">
-        <v>0.02466684339946754</v>
+        <v>0.001531489658103001</v>
       </c>
       <c r="Q11">
-        <v>0.7553926733135219</v>
+        <v>3.220441478223778</v>
       </c>
       <c r="R11">
-        <v>0.7553926733135219</v>
+        <v>28.983973304014</v>
       </c>
       <c r="S11">
-        <v>0.00030349613094883</v>
+        <v>0.001179757723559606</v>
       </c>
       <c r="T11">
-        <v>0.00030349613094883</v>
+        <v>0.001179757723559606</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.9271114404342859</v>
+        <v>0.4156373333333334</v>
       </c>
       <c r="H12">
-        <v>0.9271114404342859</v>
+        <v>1.246912</v>
       </c>
       <c r="I12">
-        <v>0.0123038090457647</v>
+        <v>0.00514927600880827</v>
       </c>
       <c r="J12">
-        <v>0.0123038090457647</v>
+        <v>0.00514927600880827</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.0004544677442</v>
+        <v>2.097707666666667</v>
       </c>
       <c r="N12">
-        <v>11.0004544677442</v>
+        <v>6.293123</v>
       </c>
       <c r="O12">
-        <v>0.3330300146348946</v>
+        <v>0.06202842610710742</v>
       </c>
       <c r="P12">
-        <v>0.3330300146348946</v>
+        <v>0.0620284261071074</v>
       </c>
       <c r="Q12">
-        <v>10.1986471870221</v>
+        <v>0.8718856206862224</v>
       </c>
       <c r="R12">
-        <v>10.1986471870221</v>
+        <v>7.846970586176001</v>
       </c>
       <c r="S12">
-        <v>0.004097537706575966</v>
+        <v>0.0003194014864174648</v>
       </c>
       <c r="T12">
-        <v>0.004097537706575966</v>
+        <v>0.0003194014864174647</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,247 +1207,247 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.9271114404342859</v>
+        <v>0.4156373333333334</v>
       </c>
       <c r="H13">
-        <v>0.9271114404342859</v>
+        <v>1.246912</v>
       </c>
       <c r="I13">
-        <v>0.0123038090457647</v>
+        <v>0.00514927600880827</v>
       </c>
       <c r="J13">
-        <v>0.0123038090457647</v>
+        <v>0.00514927600880827</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.1247827662367</v>
+        <v>0.8221409999999999</v>
       </c>
       <c r="N13">
-        <v>19.1247827662367</v>
+        <v>2.466423</v>
       </c>
       <c r="O13">
-        <v>0.5789875957584021</v>
+        <v>0.02431039990865746</v>
       </c>
       <c r="P13">
-        <v>0.5789875957584021</v>
+        <v>0.02431039990865746</v>
       </c>
       <c r="Q13">
-        <v>17.73080489839851</v>
+        <v>0.341712492864</v>
       </c>
       <c r="R13">
-        <v>17.73080489839851</v>
+        <v>3.075412435776</v>
       </c>
       <c r="S13">
-        <v>0.007123752818077783</v>
+        <v>0.0001251809590141846</v>
       </c>
       <c r="T13">
-        <v>0.007123752818077783</v>
+        <v>0.0001251809590141846</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>2.60414544397237</v>
+        <v>0.4156373333333334</v>
       </c>
       <c r="H14">
-        <v>2.60414544397237</v>
+        <v>1.246912</v>
       </c>
       <c r="I14">
-        <v>0.03455993192687309</v>
+        <v>0.00514927600880827</v>
       </c>
       <c r="J14">
-        <v>0.03455993192687309</v>
+        <v>0.00514927600880827</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.0914024338516</v>
+        <v>11.04613266666667</v>
       </c>
       <c r="N14">
-        <v>2.0914024338516</v>
+        <v>33.138398</v>
       </c>
       <c r="O14">
-        <v>0.0633155462072359</v>
+        <v>0.3266299850886302</v>
       </c>
       <c r="P14">
-        <v>0.0633155462072359</v>
+        <v>0.3266299850886302</v>
       </c>
       <c r="Q14">
-        <v>5.44631611962737</v>
+        <v>4.591185125219556</v>
       </c>
       <c r="R14">
-        <v>5.44631611962737</v>
+        <v>41.320666126976</v>
       </c>
       <c r="S14">
-        <v>0.00218818096683486</v>
+        <v>0.001681907945974286</v>
       </c>
       <c r="T14">
-        <v>0.00218818096683486</v>
+        <v>0.001681907945974287</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>2.60414544397237</v>
+        <v>0.4156373333333334</v>
       </c>
       <c r="H15">
-        <v>2.60414544397237</v>
+        <v>1.246912</v>
       </c>
       <c r="I15">
-        <v>0.03455993192687309</v>
+        <v>0.00514927600880827</v>
       </c>
       <c r="J15">
-        <v>0.03455993192687309</v>
+        <v>0.00514927600880827</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.814780877862616</v>
+        <v>19.80071533333333</v>
       </c>
       <c r="N15">
-        <v>0.814780877862616</v>
+        <v>59.402146</v>
       </c>
       <c r="O15">
-        <v>0.02466684339946754</v>
+        <v>0.5854996992375019</v>
       </c>
       <c r="P15">
-        <v>0.02466684339946754</v>
+        <v>0.5854996992375019</v>
       </c>
       <c r="Q15">
-        <v>2.121807910921739</v>
+        <v>8.229916519239111</v>
       </c>
       <c r="R15">
-        <v>2.121807910921739</v>
+        <v>74.069248673152</v>
       </c>
       <c r="S15">
-        <v>0.0008524844287364369</v>
+        <v>0.003014899554448126</v>
       </c>
       <c r="T15">
-        <v>0.0008524844287364369</v>
+        <v>0.003014899554448126</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>2.60414544397237</v>
+        <v>0.4156373333333334</v>
       </c>
       <c r="H16">
-        <v>2.60414544397237</v>
+        <v>1.246912</v>
       </c>
       <c r="I16">
-        <v>0.03455993192687309</v>
+        <v>0.00514927600880827</v>
       </c>
       <c r="J16">
-        <v>0.03455993192687309</v>
+        <v>0.00514927600880827</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>11.0004544677442</v>
+        <v>0.05179266666666667</v>
       </c>
       <c r="N16">
-        <v>11.0004544677442</v>
+        <v>0.155378</v>
       </c>
       <c r="O16">
-        <v>0.3330300146348946</v>
+        <v>0.001531489658103002</v>
       </c>
       <c r="P16">
-        <v>0.3330300146348946</v>
+        <v>0.001531489658103001</v>
       </c>
       <c r="Q16">
-        <v>28.64678338380156</v>
+        <v>0.02152696585955556</v>
       </c>
       <c r="R16">
-        <v>28.64678338380156</v>
+        <v>0.193742692736</v>
       </c>
       <c r="S16">
-        <v>0.01150949463538751</v>
+        <v>7.886062954207765E-06</v>
       </c>
       <c r="T16">
-        <v>0.01150949463538751</v>
+        <v>7.886062954207765E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,619 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4.718079333333334</v>
+      </c>
+      <c r="H17">
+        <v>14.154238</v>
+      </c>
+      <c r="I17">
+        <v>0.0584516615096834</v>
+      </c>
+      <c r="J17">
+        <v>0.05845166150968341</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.097707666666667</v>
+      </c>
+      <c r="N17">
+        <v>6.293123</v>
+      </c>
+      <c r="O17">
+        <v>0.06202842610710742</v>
+      </c>
+      <c r="P17">
+        <v>0.0620284261071074</v>
+      </c>
+      <c r="Q17">
+        <v>9.897151189474892</v>
+      </c>
+      <c r="R17">
+        <v>89.07436070527402</v>
+      </c>
+      <c r="S17">
+        <v>0.003625664566791052</v>
+      </c>
+      <c r="T17">
+        <v>0.003625664566791051</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>4.718079333333334</v>
+      </c>
+      <c r="H18">
+        <v>14.154238</v>
+      </c>
+      <c r="I18">
+        <v>0.0584516615096834</v>
+      </c>
+      <c r="J18">
+        <v>0.05845166150968341</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.8221409999999999</v>
+      </c>
+      <c r="N18">
+        <v>2.466423</v>
+      </c>
+      <c r="O18">
+        <v>0.02431039990865746</v>
+      </c>
+      <c r="P18">
+        <v>0.02431039990865746</v>
+      </c>
+      <c r="Q18">
+        <v>3.878926461186</v>
+      </c>
+      <c r="R18">
+        <v>34.910338150674</v>
+      </c>
+      <c r="S18">
+        <v>0.001420983266625884</v>
+      </c>
+      <c r="T18">
+        <v>0.001420983266625884</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>4.718079333333334</v>
+      </c>
+      <c r="H19">
+        <v>14.154238</v>
+      </c>
+      <c r="I19">
+        <v>0.0584516615096834</v>
+      </c>
+      <c r="J19">
+        <v>0.05845166150968341</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>11.04613266666667</v>
+      </c>
+      <c r="N19">
+        <v>33.138398</v>
+      </c>
+      <c r="O19">
+        <v>0.3266299850886302</v>
+      </c>
+      <c r="P19">
+        <v>0.3266299850886302</v>
+      </c>
+      <c r="Q19">
+        <v>52.11653024785823</v>
+      </c>
+      <c r="R19">
+        <v>469.0487722307241</v>
+      </c>
+      <c r="S19">
+        <v>0.01909206532731355</v>
+      </c>
+      <c r="T19">
+        <v>0.01909206532731355</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>4.718079333333334</v>
+      </c>
+      <c r="H20">
+        <v>14.154238</v>
+      </c>
+      <c r="I20">
+        <v>0.0584516615096834</v>
+      </c>
+      <c r="J20">
+        <v>0.05845166150968341</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>19.80071533333333</v>
+      </c>
+      <c r="N20">
+        <v>59.402146</v>
+      </c>
+      <c r="O20">
+        <v>0.5854996992375019</v>
+      </c>
+      <c r="P20">
+        <v>0.5854996992375019</v>
+      </c>
+      <c r="Q20">
+        <v>93.42134579941644</v>
+      </c>
+      <c r="R20">
+        <v>840.7921121947481</v>
+      </c>
+      <c r="S20">
+        <v>0.0342234302338519</v>
+      </c>
+      <c r="T20">
+        <v>0.0342234302338519</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>4.718079333333334</v>
+      </c>
+      <c r="H21">
+        <v>14.154238</v>
+      </c>
+      <c r="I21">
+        <v>0.0584516615096834</v>
+      </c>
+      <c r="J21">
+        <v>0.05845166150968341</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.05179266666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.155378</v>
+      </c>
+      <c r="O21">
+        <v>0.001531489658103002</v>
+      </c>
+      <c r="P21">
+        <v>0.001531489658103001</v>
+      </c>
+      <c r="Q21">
+        <v>0.2443619102182223</v>
+      </c>
+      <c r="R21">
+        <v>2.199257191964</v>
+      </c>
+      <c r="S21">
+        <v>8.951811510101741E-05</v>
+      </c>
+      <c r="T21">
+        <v>8.951811510101741E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.170584333333333</v>
+      </c>
+      <c r="H22">
+        <v>9.511752999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.0392799504091789</v>
+      </c>
+      <c r="J22">
+        <v>0.0392799504091789</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.097707666666667</v>
+      </c>
+      <c r="N22">
+        <v>6.293123</v>
+      </c>
+      <c r="O22">
+        <v>0.06202842610710742</v>
+      </c>
+      <c r="P22">
+        <v>0.0620284261071074</v>
+      </c>
+      <c r="Q22">
+        <v>6.650959063846555</v>
+      </c>
+      <c r="R22">
+        <v>59.858631574619</v>
+      </c>
+      <c r="S22">
+        <v>0.002436473501446597</v>
+      </c>
+      <c r="T22">
+        <v>0.002436473501446597</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.170584333333333</v>
+      </c>
+      <c r="H23">
+        <v>9.511752999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.0392799504091789</v>
+      </c>
+      <c r="J23">
+        <v>0.0392799504091789</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.8221409999999999</v>
+      </c>
+      <c r="N23">
+        <v>2.466423</v>
+      </c>
+      <c r="O23">
+        <v>0.02431039990865746</v>
+      </c>
+      <c r="P23">
+        <v>0.02431039990865746</v>
+      </c>
+      <c r="Q23">
+        <v>2.606667374390999</v>
+      </c>
+      <c r="R23">
+        <v>23.460006369519</v>
+      </c>
+      <c r="S23">
+        <v>0.0009549113028393722</v>
+      </c>
+      <c r="T23">
+        <v>0.0009549113028393722</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>2.60414544397237</v>
-      </c>
-      <c r="H17">
-        <v>2.60414544397237</v>
-      </c>
-      <c r="I17">
-        <v>0.03455993192687309</v>
-      </c>
-      <c r="J17">
-        <v>0.03455993192687309</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>19.1247827662367</v>
-      </c>
-      <c r="N17">
-        <v>19.1247827662367</v>
-      </c>
-      <c r="O17">
-        <v>0.5789875957584021</v>
-      </c>
-      <c r="P17">
-        <v>0.5789875957584021</v>
-      </c>
-      <c r="Q17">
-        <v>49.8037159076566</v>
-      </c>
-      <c r="R17">
-        <v>49.8037159076566</v>
-      </c>
-      <c r="S17">
-        <v>0.02000977189591429</v>
-      </c>
-      <c r="T17">
-        <v>0.02000977189591429</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.170584333333333</v>
+      </c>
+      <c r="H24">
+        <v>9.511752999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.0392799504091789</v>
+      </c>
+      <c r="J24">
+        <v>0.0392799504091789</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>11.04613266666667</v>
+      </c>
+      <c r="N24">
+        <v>33.138398</v>
+      </c>
+      <c r="O24">
+        <v>0.3266299850886302</v>
+      </c>
+      <c r="P24">
+        <v>0.3266299850886302</v>
+      </c>
+      <c r="Q24">
+        <v>35.02269517685488</v>
+      </c>
+      <c r="R24">
+        <v>315.204256591694</v>
+      </c>
+      <c r="S24">
+        <v>0.01283000961643224</v>
+      </c>
+      <c r="T24">
+        <v>0.01283000961643224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.170584333333333</v>
+      </c>
+      <c r="H25">
+        <v>9.511752999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.0392799504091789</v>
+      </c>
+      <c r="J25">
+        <v>0.0392799504091789</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>19.80071533333333</v>
+      </c>
+      <c r="N25">
+        <v>59.402146</v>
+      </c>
+      <c r="O25">
+        <v>0.5854996992375019</v>
+      </c>
+      <c r="P25">
+        <v>0.5854996992375019</v>
+      </c>
+      <c r="Q25">
+        <v>62.77983782465977</v>
+      </c>
+      <c r="R25">
+        <v>565.0185404219379</v>
+      </c>
+      <c r="S25">
+        <v>0.02299839915063823</v>
+      </c>
+      <c r="T25">
+        <v>0.02299839915063823</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.170584333333333</v>
+      </c>
+      <c r="H26">
+        <v>9.511752999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.0392799504091789</v>
+      </c>
+      <c r="J26">
+        <v>0.0392799504091789</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.05179266666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.155378</v>
+      </c>
+      <c r="O26">
+        <v>0.001531489658103002</v>
+      </c>
+      <c r="P26">
+        <v>0.001531489658103001</v>
+      </c>
+      <c r="Q26">
+        <v>0.1642130175148889</v>
+      </c>
+      <c r="R26">
+        <v>1.477917157634</v>
+      </c>
+      <c r="S26">
+        <v>6.015683782245625E-05</v>
+      </c>
+      <c r="T26">
+        <v>6.015683782245624E-05</v>
       </c>
     </row>
   </sheetData>
